--- a/data-raw/SARS/Revenue.xlsx
+++ b/data-raw/SARS/Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisaxelson/Documents/Axie/tax4sa/data-raw/SARS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CF2A76-C15F-1E48-9C52-5D2226560EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA54C31-EB8C-C844-9E0B-5D594B5180F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="2" r:id="rId1"/>
@@ -1553,7 +1553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1704,35 +1706,35 @@
         <v>248</v>
       </c>
       <c r="D2" s="14">
-        <f t="shared" ref="D2:I2" si="0">D3+SUM(D5:D17)</f>
+        <f>D3+SUM(D5:D17)</f>
         <v>11248549</v>
       </c>
       <c r="E2" s="14">
-        <f t="shared" si="0"/>
+        <f>E3+SUM(E5:E17)</f>
         <v>13916172</v>
       </c>
       <c r="F2" s="14">
-        <f t="shared" si="0"/>
+        <f>F3+SUM(F5:F17)</f>
         <v>17417635</v>
       </c>
       <c r="G2" s="14">
-        <f t="shared" si="0"/>
+        <f>G3+SUM(G5:G17)</f>
         <v>19663867</v>
       </c>
       <c r="H2" s="14">
-        <f t="shared" si="0"/>
+        <f>H3+SUM(H5:H17)</f>
         <v>22109211</v>
       </c>
       <c r="I2" s="14">
-        <f t="shared" si="0"/>
+        <f>I3+SUM(I5:I17)</f>
         <v>26671088</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" ref="J2:K2" si="1">J3+SUM(J5:J17)</f>
+        <f>J3+SUM(J5:J17)</f>
         <v>34430749</v>
       </c>
       <c r="K2" s="14">
-        <f t="shared" si="1"/>
+        <f>K3+SUM(K5:K17)</f>
         <v>39580892</v>
       </c>
       <c r="L2" s="14">
@@ -1976,115 +1978,115 @@
         <v>13123316</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:AO4" si="2">SUM(N5:N12)</f>
+        <f>SUM(N5:N12)</f>
         <v>12367545</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(O5:O12)</f>
         <v>14895074</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(P5:P12)</f>
         <v>16929703</v>
       </c>
       <c r="Q4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(Q5:Q12)</f>
         <v>22737644</v>
       </c>
       <c r="R4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(R5:R12)</f>
         <v>26054303</v>
       </c>
       <c r="S4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(S5:S12)</f>
         <v>29644876</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(T5:T12)</f>
         <v>29451968</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(U5:U12)</f>
         <v>38742930</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(V5:V12)</f>
         <v>55707799</v>
       </c>
       <c r="W4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(W5:W12)</f>
         <v>69060285</v>
       </c>
       <c r="X4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(X5:X12)</f>
         <v>71911383</v>
       </c>
       <c r="Y4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(Y5:Y12)</f>
         <v>82675065</v>
       </c>
       <c r="Z4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(Z5:Z12)</f>
         <v>103221508</v>
       </c>
       <c r="AA4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AA5:AA12)</f>
         <v>137480462</v>
       </c>
       <c r="AB4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AB5:AB12)</f>
         <v>160990609</v>
       </c>
       <c r="AC4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AC5:AC12)</f>
         <v>185539109</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AD5:AD12)</f>
         <v>150393914.03</v>
       </c>
       <c r="AE4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AE5:AE12)</f>
         <v>150082641.17999998</v>
       </c>
       <c r="AF4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AF5:AF12)</f>
         <v>173598749.692</v>
       </c>
       <c r="AG4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AG5:AG12)</f>
         <v>178998096.197</v>
       </c>
       <c r="AH4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AH5:AH12)</f>
         <v>194633062.88799998</v>
       </c>
       <c r="AI4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AI5:AI12)</f>
         <v>206172681.24000001</v>
       </c>
       <c r="AJ4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AJ5:AJ12)</f>
         <v>215304416.75999999</v>
       </c>
       <c r="AK4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AK5:AK12)</f>
         <v>236007424.00000003</v>
       </c>
       <c r="AL4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AL5:AL12)</f>
         <v>245971610.53953999</v>
       </c>
       <c r="AM4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AM5:AM12)</f>
         <v>242569142.13381001</v>
       </c>
       <c r="AN4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AN5:AN12)</f>
         <v>240046915.40483993</v>
       </c>
       <c r="AO4" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(AO5:AO12)</f>
         <v>227434992.50809002</v>
       </c>
     </row>
@@ -2095,79 +2097,123 @@
       <c r="B5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>280</v>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D5" s="14">
-        <v>1700965</v>
+        <v>3278638</v>
       </c>
       <c r="E5" s="14">
-        <v>1598923</v>
+        <v>3820090</v>
       </c>
       <c r="F5" s="14">
-        <v>2453442</v>
+        <v>4855334</v>
       </c>
       <c r="G5" s="14">
-        <v>2532482</v>
+        <v>5113476</v>
       </c>
       <c r="H5" s="14">
-        <v>2074632</v>
+        <v>5868829</v>
       </c>
       <c r="I5" s="14">
-        <v>1694670</v>
+        <v>8236045</v>
       </c>
       <c r="J5" s="14">
-        <v>1016072</v>
+        <v>11013255</v>
       </c>
       <c r="K5" s="14">
-        <v>644367</v>
+        <v>11870475</v>
       </c>
       <c r="L5" s="14">
-        <v>523709</v>
+        <v>12490833</v>
       </c>
       <c r="M5" s="14">
-        <v>421502</v>
+        <v>12126047</v>
       </c>
       <c r="N5" s="14">
-        <v>622492</v>
+        <v>10359264</v>
       </c>
       <c r="O5" s="14">
-        <v>1172675</v>
+        <v>11961336</v>
       </c>
       <c r="P5" s="14">
-        <v>893680</v>
+        <v>14058998</v>
       </c>
       <c r="Q5" s="14">
-        <v>507674</v>
+        <v>16985002</v>
       </c>
       <c r="R5" s="14">
-        <v>332499</v>
+        <v>19696404</v>
       </c>
       <c r="S5" s="14">
-        <v>188647</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
+        <v>20417716</v>
+      </c>
+      <c r="T5" s="14">
+        <v>20971607</v>
+      </c>
+      <c r="U5" s="14">
+        <v>29491826</v>
+      </c>
+      <c r="V5" s="14">
+        <v>42354472</v>
+      </c>
+      <c r="W5" s="14">
+        <v>55745054</v>
+      </c>
+      <c r="X5" s="14">
+        <v>60880803</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>70781871</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>86160776</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>118998582</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>140119831</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>165378278</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>134883419.63999999</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>132901679.95999999</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>151626675.80500001</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>159259227.88</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>177324272.97499999</v>
+      </c>
+      <c r="AI5" s="15">
+        <v>184925392.11000001</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>191151643.05000001</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>204431762.61000001</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>217412046.19176</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>212046051.50046</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>211520529.18472993</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>202099325.8247</v>
+      </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -2176,79 +2222,103 @@
       <c r="B6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="14">
-        <v>980</v>
-      </c>
-      <c r="E6" s="14">
-        <v>541</v>
-      </c>
-      <c r="F6" s="14">
-        <v>726</v>
-      </c>
-      <c r="G6" s="14">
-        <v>27596</v>
-      </c>
-      <c r="H6" s="14">
-        <v>98216</v>
-      </c>
-      <c r="I6" s="14">
-        <v>458</v>
-      </c>
-      <c r="J6" s="14">
-        <v>10715</v>
-      </c>
-      <c r="K6" s="14">
-        <v>24211</v>
-      </c>
-      <c r="L6" s="14">
-        <v>21008</v>
-      </c>
-      <c r="M6" s="14">
-        <v>55077</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="14">
-        <v>13270</v>
+        <v>876675</v>
       </c>
       <c r="O6" s="14">
-        <v>35698</v>
+        <v>1303595</v>
       </c>
       <c r="P6" s="14">
-        <v>17942</v>
+        <v>1262242</v>
       </c>
       <c r="Q6" s="14">
-        <v>213397</v>
+        <v>1337878</v>
       </c>
       <c r="R6" s="14">
-        <v>118657</v>
+        <v>1446448</v>
       </c>
       <c r="S6" s="14">
-        <v>320437</v>
-      </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
+        <v>1941613</v>
+      </c>
+      <c r="T6" s="14">
+        <v>3149932</v>
+      </c>
+      <c r="U6" s="14">
+        <v>4031348</v>
+      </c>
+      <c r="V6" s="14">
+        <v>7162722</v>
+      </c>
+      <c r="W6" s="14">
+        <v>6325581</v>
+      </c>
+      <c r="X6" s="14">
+        <v>6132930</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>7487073</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>12277625</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>15291351</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>20585421</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>20017580</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>15467795.18</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>17178189.120000001</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>21965408.631999999</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>19738708.879999999</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>17308789.912999999</v>
+      </c>
+      <c r="AI6" s="15">
+        <v>21247289.129999999</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>23934233.260000002</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>31129891.68</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>27894314.75553</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>29898035.185969997</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>27929888.157000002</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>24845362.045830004</v>
+      </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -2257,57 +2327,25 @@
       <c r="B7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="14">
-        <v>187356</v>
-      </c>
-      <c r="E7" s="14">
-        <v>322038</v>
-      </c>
-      <c r="F7" s="14">
-        <v>576470</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1001008</v>
-      </c>
-      <c r="H7" s="14">
-        <v>865132</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1312365</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1780806</v>
-      </c>
-      <c r="K7" s="14">
-        <v>2221767</v>
-      </c>
-      <c r="L7" s="14">
-        <v>1027873</v>
-      </c>
-      <c r="M7" s="14">
-        <v>520600</v>
-      </c>
-      <c r="N7" s="14">
-        <v>495341</v>
-      </c>
-      <c r="O7" s="14">
-        <v>421528</v>
-      </c>
-      <c r="P7" s="14">
-        <v>696833</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>1128182</v>
-      </c>
-      <c r="R7" s="14">
-        <v>1230697</v>
-      </c>
-      <c r="S7" s="14">
-        <v>1677585</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -2321,15 +2359,33 @@
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
+      <c r="AG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>218540.45</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>445769.71</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>665249.5922500001</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>625055.44738000003</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>596498.06310999999</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>490304.63756</v>
+      </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
@@ -2338,123 +2394,79 @@
       <c r="B8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>186</v>
+      <c r="C8" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="D8" s="14">
-        <v>3278638</v>
+        <v>1700965</v>
       </c>
       <c r="E8" s="14">
-        <v>3820090</v>
+        <v>1598923</v>
       </c>
       <c r="F8" s="14">
-        <v>4855334</v>
+        <v>2453442</v>
       </c>
       <c r="G8" s="14">
-        <v>5113476</v>
+        <v>2532482</v>
       </c>
       <c r="H8" s="14">
-        <v>5868829</v>
+        <v>2074632</v>
       </c>
       <c r="I8" s="14">
-        <v>8236045</v>
+        <v>1694670</v>
       </c>
       <c r="J8" s="14">
-        <v>11013255</v>
+        <v>1016072</v>
       </c>
       <c r="K8" s="14">
-        <v>11870475</v>
+        <v>644367</v>
       </c>
       <c r="L8" s="14">
-        <v>12490833</v>
+        <v>523709</v>
       </c>
       <c r="M8" s="14">
-        <v>12126047</v>
+        <v>421502</v>
       </c>
       <c r="N8" s="14">
-        <v>10359264</v>
+        <v>622492</v>
       </c>
       <c r="O8" s="14">
-        <v>11961336</v>
+        <v>1172675</v>
       </c>
       <c r="P8" s="14">
-        <v>14058998</v>
+        <v>893680</v>
       </c>
       <c r="Q8" s="14">
-        <v>16985002</v>
+        <v>507674</v>
       </c>
       <c r="R8" s="14">
-        <v>19696404</v>
+        <v>332499</v>
       </c>
       <c r="S8" s="14">
-        <v>20417716</v>
-      </c>
-      <c r="T8" s="14">
-        <v>20971607</v>
-      </c>
-      <c r="U8" s="14">
-        <v>29491826</v>
-      </c>
-      <c r="V8" s="14">
-        <v>42354472</v>
-      </c>
-      <c r="W8" s="14">
-        <v>55745054</v>
-      </c>
-      <c r="X8" s="14">
-        <v>60880803</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>70781871</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>86160776</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>118998582</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>140119831</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>165378278</v>
-      </c>
-      <c r="AD8" s="15">
-        <v>134883419.63999999</v>
-      </c>
-      <c r="AE8" s="15">
-        <v>132901679.95999999</v>
-      </c>
-      <c r="AF8" s="15">
-        <v>151626675.80500001</v>
-      </c>
-      <c r="AG8" s="15">
-        <v>159259227.88</v>
-      </c>
-      <c r="AH8" s="15">
-        <v>177324272.97499999</v>
-      </c>
-      <c r="AI8" s="15">
-        <v>184925392.11000001</v>
-      </c>
-      <c r="AJ8" s="15">
-        <v>191151643.05000001</v>
-      </c>
-      <c r="AK8" s="15">
-        <v>204431762.61000001</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>217412046.19176</v>
-      </c>
-      <c r="AM8" s="10">
-        <v>212046051.50046</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>211520529.18472993</v>
-      </c>
-      <c r="AO8" s="4">
-        <v>202099325.8247</v>
-      </c>
+        <v>188647</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -2463,103 +2475,79 @@
       <c r="B9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="14">
+        <v>980</v>
+      </c>
+      <c r="E9" s="14">
+        <v>541</v>
+      </c>
+      <c r="F9" s="14">
+        <v>726</v>
+      </c>
+      <c r="G9" s="14">
+        <v>27596</v>
+      </c>
+      <c r="H9" s="14">
+        <v>98216</v>
+      </c>
+      <c r="I9" s="14">
+        <v>458</v>
+      </c>
+      <c r="J9" s="14">
+        <v>10715</v>
+      </c>
+      <c r="K9" s="14">
+        <v>24211</v>
+      </c>
+      <c r="L9" s="14">
+        <v>21008</v>
+      </c>
+      <c r="M9" s="14">
+        <v>55077</v>
+      </c>
       <c r="N9" s="14">
-        <v>876675</v>
+        <v>13270</v>
       </c>
       <c r="O9" s="14">
-        <v>1303595</v>
+        <v>35698</v>
       </c>
       <c r="P9" s="14">
-        <v>1262242</v>
+        <v>17942</v>
       </c>
       <c r="Q9" s="14">
-        <v>1337878</v>
+        <v>213397</v>
       </c>
       <c r="R9" s="14">
-        <v>1446448</v>
+        <v>118657</v>
       </c>
       <c r="S9" s="14">
-        <v>1941613</v>
-      </c>
-      <c r="T9" s="14">
-        <v>3149932</v>
-      </c>
-      <c r="U9" s="14">
-        <v>4031348</v>
-      </c>
-      <c r="V9" s="14">
-        <v>7162722</v>
-      </c>
-      <c r="W9" s="14">
-        <v>6325581</v>
-      </c>
-      <c r="X9" s="14">
-        <v>6132930</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>7487073</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>12277625</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>15291351</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>20585421</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>20017580</v>
-      </c>
-      <c r="AD9" s="15">
-        <v>15467795.18</v>
-      </c>
-      <c r="AE9" s="15">
-        <v>17178189.120000001</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>21965408.631999999</v>
-      </c>
-      <c r="AG9" s="15">
-        <v>19738708.879999999</v>
-      </c>
-      <c r="AH9" s="15">
-        <v>17308789.912999999</v>
-      </c>
-      <c r="AI9" s="15">
-        <v>21247289.129999999</v>
-      </c>
-      <c r="AJ9" s="15">
-        <v>23934233.260000002</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>31129891.68</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>27894314.75553</v>
-      </c>
-      <c r="AM9" s="10">
-        <v>29898035.185969997</v>
-      </c>
-      <c r="AN9" s="4">
-        <v>27929888.157000002</v>
-      </c>
-      <c r="AO9" s="4">
-        <v>24845362.045830004</v>
-      </c>
+        <v>320437</v>
+      </c>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
@@ -2568,25 +2556,57 @@
       <c r="B10" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="14">
+        <v>187356</v>
+      </c>
+      <c r="E10" s="14">
+        <v>322038</v>
+      </c>
+      <c r="F10" s="14">
+        <v>576470</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1001008</v>
+      </c>
+      <c r="H10" s="14">
+        <v>865132</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1312365</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1780806</v>
+      </c>
+      <c r="K10" s="14">
+        <v>2221767</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1027873</v>
+      </c>
+      <c r="M10" s="14">
+        <v>520600</v>
+      </c>
+      <c r="N10" s="14">
+        <v>495341</v>
+      </c>
+      <c r="O10" s="14">
+        <v>421528</v>
+      </c>
+      <c r="P10" s="14">
+        <v>696833</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>1128182</v>
+      </c>
+      <c r="R10" s="14">
+        <v>1230697</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1677585</v>
+      </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
@@ -2600,33 +2620,15 @@
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="15">
-        <v>218540.45</v>
-      </c>
-      <c r="AK10" s="15">
-        <v>445769.71</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>665249.5922500001</v>
-      </c>
-      <c r="AM10" s="10">
-        <v>625055.44738000003</v>
-      </c>
-      <c r="AN10" s="4">
-        <v>596498.06310999999</v>
-      </c>
-      <c r="AO10" s="4">
-        <v>490304.63756</v>
-      </c>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
@@ -3412,35 +3414,35 @@
         <v>195</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" ref="D20:I20" si="3">SUM(D21:D25)</f>
+        <f t="shared" ref="D20:I20" si="0">SUM(D21:D25)</f>
         <v>447923</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>421309</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>467249</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>580817</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>824315</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>822991</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" ref="J20:K20" si="4">SUM(J21:J25)</f>
+        <f t="shared" ref="J20:K20" si="1">SUM(J21:J25)</f>
         <v>1033643</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1098198</v>
       </c>
       <c r="L20" s="14">
@@ -4103,35 +4105,35 @@
         <v>294</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" ref="D26:I26" si="5">SUM(D27:D61)</f>
+        <f t="shared" ref="D26:I26" si="2">SUM(D27:D61)</f>
         <v>5708273</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7913291</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10244922</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10959906</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>13197157</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18196002</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" ref="J26:K26" si="6">SUM(J27:J61)</f>
+        <f t="shared" ref="J26:K26" si="3">SUM(J27:J61)</f>
         <v>23684105</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>26097645</v>
       </c>
       <c r="L26" s="14">
@@ -4319,47 +4321,47 @@
         <v>147941322</v>
       </c>
       <c r="AE27" s="15">
-        <f t="shared" ref="AE27:AO27" si="7">SUM(AE28:AE30)</f>
+        <f t="shared" ref="AE27:AO27" si="4">SUM(AE28:AE30)</f>
         <v>183571439.47000003</v>
       </c>
       <c r="AF27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>191020198.53599998</v>
       </c>
       <c r="AG27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>215023035.17400002</v>
       </c>
       <c r="AH27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>237666578.87200001</v>
       </c>
       <c r="AI27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>261294787.94000003</v>
       </c>
       <c r="AJ27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>281111410.02999997</v>
       </c>
       <c r="AK27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>289166722.46000004</v>
       </c>
       <c r="AL27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>297997586.56050998</v>
       </c>
       <c r="AM27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>324765977.89959002</v>
       </c>
       <c r="AN27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>346747694.24808002</v>
       </c>
       <c r="AO27" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>331183557.92798984</v>
       </c>
     </row>
@@ -7386,35 +7388,35 @@
         <v>230</v>
       </c>
       <c r="D62" s="14">
-        <f t="shared" ref="D62:I62" si="8">SUM(D63:D68)</f>
+        <f t="shared" ref="D62:I62" si="5">SUM(D63:D68)</f>
         <v>1347050</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1376552</v>
       </c>
       <c r="F62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1745016</v>
       </c>
       <c r="G62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2275636</v>
       </c>
       <c r="H62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2542107</v>
       </c>
       <c r="I62" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4358751</v>
       </c>
       <c r="J62" s="14">
-        <f t="shared" ref="J62:K62" si="9">SUM(J63:J68)</f>
+        <f t="shared" ref="J62:K62" si="6">SUM(J63:J68)</f>
         <v>4903708</v>
       </c>
       <c r="K62" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>4697574</v>
       </c>
       <c r="L62" s="14">
@@ -8114,35 +8116,35 @@
         <v>237</v>
       </c>
       <c r="D69" s="14">
-        <f t="shared" ref="D69:I69" si="10">D70</f>
+        <f t="shared" ref="D69:I69" si="7">D70</f>
         <v>213145</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>243793</v>
       </c>
       <c r="F69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>272764</v>
       </c>
       <c r="G69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>321093</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>439010</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>469274</v>
       </c>
       <c r="J69" s="14">
-        <f t="shared" ref="J69:K69" si="11">J70</f>
+        <f t="shared" ref="J69:K69" si="8">J70</f>
         <v>685218</v>
       </c>
       <c r="K69" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>657267</v>
       </c>
       <c r="L69" s="14">
@@ -8844,11 +8846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:HX91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data-raw/SARS/Revenue.xlsx
+++ b/data-raw/SARS/Revenue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisaxelson/Documents/Axie/tax4sa/data-raw/SARS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA54C31-EB8C-C844-9E0B-5D594B5180F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35007AA2-842B-A14F-B2F0-EF6C790724D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,10 @@
   <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD10"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1706,39 +1709,39 @@
         <v>248</v>
       </c>
       <c r="D2" s="14">
-        <f>D3+SUM(D5:D17)</f>
+        <f t="shared" ref="D2:L2" si="0">D3+SUM(D5:D17)</f>
         <v>11248549</v>
       </c>
       <c r="E2" s="14">
-        <f>E3+SUM(E5:E17)</f>
+        <f t="shared" si="0"/>
         <v>13916172</v>
       </c>
       <c r="F2" s="14">
-        <f>F3+SUM(F5:F17)</f>
+        <f t="shared" si="0"/>
         <v>17417635</v>
       </c>
       <c r="G2" s="14">
-        <f>G3+SUM(G5:G17)</f>
+        <f t="shared" si="0"/>
         <v>19663867</v>
       </c>
       <c r="H2" s="14">
-        <f>H3+SUM(H5:H17)</f>
+        <f t="shared" si="0"/>
         <v>22109211</v>
       </c>
       <c r="I2" s="14">
-        <f>I3+SUM(I5:I17)</f>
+        <f t="shared" si="0"/>
         <v>26671088</v>
       </c>
       <c r="J2" s="14">
-        <f>J3+SUM(J5:J17)</f>
+        <f t="shared" si="0"/>
         <v>34430749</v>
       </c>
       <c r="K2" s="14">
-        <f>K3+SUM(K5:K17)</f>
+        <f t="shared" si="0"/>
         <v>39580892</v>
       </c>
       <c r="L2" s="14">
-        <f>L3+SUM(L5:L17)</f>
+        <f t="shared" si="0"/>
         <v>44661635</v>
       </c>
       <c r="M2" s="14">
@@ -1974,119 +1977,119 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14">
-        <f>SUM(M5:M12)</f>
+        <f t="shared" ref="M4:AO4" si="1">SUM(M5:M12)</f>
         <v>13123316</v>
       </c>
       <c r="N4" s="14">
-        <f>SUM(N5:N12)</f>
+        <f t="shared" si="1"/>
         <v>12367545</v>
       </c>
       <c r="O4" s="14">
-        <f>SUM(O5:O12)</f>
+        <f t="shared" si="1"/>
         <v>14895074</v>
       </c>
       <c r="P4" s="14">
-        <f>SUM(P5:P12)</f>
+        <f t="shared" si="1"/>
         <v>16929703</v>
       </c>
       <c r="Q4" s="14">
-        <f>SUM(Q5:Q12)</f>
+        <f t="shared" si="1"/>
         <v>22737644</v>
       </c>
       <c r="R4" s="14">
-        <f>SUM(R5:R12)</f>
+        <f t="shared" si="1"/>
         <v>26054303</v>
       </c>
       <c r="S4" s="14">
-        <f>SUM(S5:S12)</f>
+        <f t="shared" si="1"/>
         <v>29644876</v>
       </c>
       <c r="T4" s="14">
-        <f>SUM(T5:T12)</f>
+        <f t="shared" si="1"/>
         <v>29451968</v>
       </c>
       <c r="U4" s="14">
-        <f>SUM(U5:U12)</f>
+        <f t="shared" si="1"/>
         <v>38742930</v>
       </c>
       <c r="V4" s="14">
-        <f>SUM(V5:V12)</f>
+        <f t="shared" si="1"/>
         <v>55707799</v>
       </c>
       <c r="W4" s="14">
-        <f>SUM(W5:W12)</f>
+        <f t="shared" si="1"/>
         <v>69060285</v>
       </c>
       <c r="X4" s="14">
-        <f>SUM(X5:X12)</f>
+        <f t="shared" si="1"/>
         <v>71911383</v>
       </c>
       <c r="Y4" s="14">
-        <f>SUM(Y5:Y12)</f>
+        <f t="shared" si="1"/>
         <v>82675065</v>
       </c>
       <c r="Z4" s="14">
-        <f>SUM(Z5:Z12)</f>
+        <f t="shared" si="1"/>
         <v>103221508</v>
       </c>
       <c r="AA4" s="14">
-        <f>SUM(AA5:AA12)</f>
+        <f t="shared" si="1"/>
         <v>137480462</v>
       </c>
       <c r="AB4" s="14">
-        <f>SUM(AB5:AB12)</f>
+        <f t="shared" si="1"/>
         <v>160990609</v>
       </c>
       <c r="AC4" s="14">
-        <f>SUM(AC5:AC12)</f>
+        <f t="shared" si="1"/>
         <v>185539109</v>
       </c>
       <c r="AD4" s="14">
-        <f>SUM(AD5:AD12)</f>
+        <f t="shared" si="1"/>
         <v>150393914.03</v>
       </c>
       <c r="AE4" s="14">
-        <f>SUM(AE5:AE12)</f>
+        <f t="shared" si="1"/>
         <v>150082641.17999998</v>
       </c>
       <c r="AF4" s="14">
-        <f>SUM(AF5:AF12)</f>
+        <f t="shared" si="1"/>
         <v>173598749.692</v>
       </c>
       <c r="AG4" s="14">
-        <f>SUM(AG5:AG12)</f>
+        <f t="shared" si="1"/>
         <v>178998096.197</v>
       </c>
       <c r="AH4" s="14">
-        <f>SUM(AH5:AH12)</f>
+        <f t="shared" si="1"/>
         <v>194633062.88799998</v>
       </c>
       <c r="AI4" s="14">
-        <f>SUM(AI5:AI12)</f>
+        <f t="shared" si="1"/>
         <v>206172681.24000001</v>
       </c>
       <c r="AJ4" s="14">
-        <f>SUM(AJ5:AJ12)</f>
+        <f t="shared" si="1"/>
         <v>215304416.75999999</v>
       </c>
       <c r="AK4" s="14">
-        <f>SUM(AK5:AK12)</f>
+        <f t="shared" si="1"/>
         <v>236007424.00000003</v>
       </c>
       <c r="AL4" s="14">
-        <f>SUM(AL5:AL12)</f>
+        <f t="shared" si="1"/>
         <v>245971610.53953999</v>
       </c>
       <c r="AM4" s="14">
-        <f>SUM(AM5:AM12)</f>
+        <f t="shared" si="1"/>
         <v>242569142.13381001</v>
       </c>
       <c r="AN4" s="14">
-        <f>SUM(AN5:AN12)</f>
+        <f t="shared" si="1"/>
         <v>240046915.40483993</v>
       </c>
       <c r="AO4" s="14">
-        <f>SUM(AO5:AO12)</f>
+        <f t="shared" si="1"/>
         <v>227434992.50809002</v>
       </c>
     </row>
@@ -3414,35 +3417,35 @@
         <v>195</v>
       </c>
       <c r="D20" s="14">
-        <f t="shared" ref="D20:I20" si="0">SUM(D21:D25)</f>
+        <f t="shared" ref="D20:I20" si="2">SUM(D21:D25)</f>
         <v>447923</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>421309</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>467249</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>580817</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>824315</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>822991</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" ref="J20:K20" si="1">SUM(J21:J25)</f>
+        <f t="shared" ref="J20:K20" si="3">SUM(J21:J25)</f>
         <v>1033643</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1098198</v>
       </c>
       <c r="L20" s="14">
@@ -4105,35 +4108,35 @@
         <v>294</v>
       </c>
       <c r="D26" s="14">
-        <f t="shared" ref="D26:I26" si="2">SUM(D27:D61)</f>
+        <f t="shared" ref="D26:I26" si="4">SUM(D27:D61)</f>
         <v>5708273</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7913291</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10244922</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10959906</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13197157</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18196002</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" ref="J26:K26" si="3">SUM(J27:J61)</f>
+        <f t="shared" ref="J26:K26" si="5">SUM(J27:J61)</f>
         <v>23684105</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26097645</v>
       </c>
       <c r="L26" s="14">
@@ -4321,47 +4324,47 @@
         <v>147941322</v>
       </c>
       <c r="AE27" s="15">
-        <f t="shared" ref="AE27:AO27" si="4">SUM(AE28:AE30)</f>
+        <f t="shared" ref="AE27:AO27" si="6">SUM(AE28:AE30)</f>
         <v>183571439.47000003</v>
       </c>
       <c r="AF27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>191020198.53599998</v>
       </c>
       <c r="AG27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>215023035.17400002</v>
       </c>
       <c r="AH27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>237666578.87200001</v>
       </c>
       <c r="AI27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>261294787.94000003</v>
       </c>
       <c r="AJ27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>281111410.02999997</v>
       </c>
       <c r="AK27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>289166722.46000004</v>
       </c>
       <c r="AL27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>297997586.56050998</v>
       </c>
       <c r="AM27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>324765977.89959002</v>
       </c>
       <c r="AN27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>346747694.24808002</v>
       </c>
       <c r="AO27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>331183557.92798984</v>
       </c>
     </row>
@@ -7388,35 +7391,35 @@
         <v>230</v>
       </c>
       <c r="D62" s="14">
-        <f t="shared" ref="D62:I62" si="5">SUM(D63:D68)</f>
+        <f t="shared" ref="D62:I62" si="7">SUM(D63:D68)</f>
         <v>1347050</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1376552</v>
       </c>
       <c r="F62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1745016</v>
       </c>
       <c r="G62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2275636</v>
       </c>
       <c r="H62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2542107</v>
       </c>
       <c r="I62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4358751</v>
       </c>
       <c r="J62" s="14">
-        <f t="shared" ref="J62:K62" si="6">SUM(J63:J68)</f>
+        <f t="shared" ref="J62:K62" si="8">SUM(J63:J68)</f>
         <v>4903708</v>
       </c>
       <c r="K62" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4697574</v>
       </c>
       <c r="L62" s="14">
@@ -8116,35 +8119,35 @@
         <v>237</v>
       </c>
       <c r="D69" s="14">
-        <f t="shared" ref="D69:I69" si="7">D70</f>
+        <f t="shared" ref="D69:I69" si="9">D70</f>
         <v>213145</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>243793</v>
       </c>
       <c r="F69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>272764</v>
       </c>
       <c r="G69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>321093</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>439010</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>469274</v>
       </c>
       <c r="J69" s="14">
-        <f t="shared" ref="J69:K69" si="8">J70</f>
+        <f t="shared" ref="J69:K69" si="10">J70</f>
         <v>685218</v>
       </c>
       <c r="K69" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>657267</v>
       </c>
       <c r="L69" s="14">
@@ -8850,7 +8853,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data-raw/SARS/Revenue.xlsx
+++ b/data-raw/SARS/Revenue.xlsx
@@ -1549,10 +1549,10 @@
   <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AB47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM79" sqref="AM79"/>
+      <selection pane="bottomRight" activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/SARS/Revenue.xlsx
+++ b/data-raw/SARS/Revenue.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="2" r:id="rId1"/>
@@ -1548,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8846,11 +8846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HZ91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23733,7 +23733,7 @@
         <v>10203827</v>
       </c>
       <c r="AR28" s="7">
-        <v>79993417</v>
+        <v>7993417</v>
       </c>
       <c r="AS28" s="7">
         <v>9274594</v>

--- a/data-raw/SARS/Revenue.xlsx
+++ b/data-raw/SARS/Revenue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\tax4sa\data-raw\SARS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F302FECF-F0F8-46D8-BB2F-0F6CC4B9ABC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FF67A8-3A84-4B11-B500-994D2E2CA28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="2" r:id="rId1"/>
@@ -1243,12 +1243,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1262,11 +1261,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1314,16 +1315,16 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1771,29 +1772,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
+      <selection pane="bottomRight" activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="24" width="13.6640625" customWidth="1"/>
-    <col min="25" max="29" width="14.33203125" customWidth="1"/>
-    <col min="30" max="38" width="15.33203125" customWidth="1"/>
-    <col min="39" max="41" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="29" width="14.28515625" customWidth="1"/>
+    <col min="30" max="38" width="15.28515625" customWidth="1"/>
+    <col min="39" max="41" width="14.28515625" customWidth="1"/>
     <col min="42" max="42" width="16" customWidth="1"/>
-    <col min="43" max="43" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>242</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>247</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>988505254</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>247</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>600366808</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>247</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>383504546</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>247</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>344659912</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>247</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>38118709</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>247</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>725925</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>247</v>
       </c>
@@ -2736,7 +2737,7 @@
       <c r="AO8" s="10"/>
       <c r="AP8" s="14"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>247</v>
       </c>
@@ -2818,7 +2819,7 @@
       <c r="AO9" s="10"/>
       <c r="AP9" s="14"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>247</v>
       </c>
@@ -2900,7 +2901,7 @@
       <c r="AO10" s="10"/>
       <c r="AP10" s="14"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>247</v>
       </c>
@@ -2984,7 +2985,7 @@
       <c r="AO11" s="10"/>
       <c r="AP11" s="14"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>247</v>
       </c>
@@ -3064,7 +3065,7 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="14"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>247</v>
       </c>
@@ -3116,7 +3117,7 @@
       <c r="AO13" s="10"/>
       <c r="AP13" s="14"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>247</v>
       </c>
@@ -3202,7 +3203,7 @@
       <c r="AO14" s="10"/>
       <c r="AP14" s="14"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>247</v>
       </c>
@@ -3284,7 +3285,7 @@
       <c r="AO15" s="10"/>
       <c r="AP15" s="14"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>247</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>4633907</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>247</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>192</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>20892489</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>192</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>20892489</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>194</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>21237713</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>194</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>682787</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>194</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>3702226</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>194</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>5400599</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>194</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>11452101</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>194</v>
       </c>
@@ -4422,7 +4423,7 @@
       <c r="AO25" s="10"/>
       <c r="AP25" s="14"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>293</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>579990060</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>293</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>422416399</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>293</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>486437225</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>293</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>254984018</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>293</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>-319004844</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>293</v>
       </c>
@@ -4992,7 +4993,7 @@
       <c r="AO31" s="11"/>
       <c r="AP31" s="14"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>293</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>21370188</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>293</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>293</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>6921528</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>293</v>
       </c>
@@ -5461,7 +5462,7 @@
       <c r="AO35" s="10"/>
       <c r="AP35" s="14"/>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>293</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>13174704</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>293</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>10188505</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>293</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>402908</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>293</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>704937</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>293</v>
       </c>
@@ -6071,7 +6072,7 @@
       <c r="AO40" s="12"/>
       <c r="AP40" s="14"/>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>293</v>
       </c>
@@ -6141,7 +6142,7 @@
       <c r="AO41" s="10"/>
       <c r="AP41" s="14"/>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>293</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>2387443</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>293</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>2194700</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>293</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>5520495</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>293</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>80472844</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>293</v>
       </c>
@@ -6699,7 +6700,7 @@
       <c r="AO46" s="10"/>
       <c r="AP46" s="14"/>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>293</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>788582</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>293</v>
       </c>
@@ -6884,7 +6885,7 @@
       <c r="AO48" s="10"/>
       <c r="AP48" s="14"/>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>293</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>679818</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>293</v>
       </c>
@@ -7068,7 +7069,7 @@
         <v>7374436</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>293</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>24182</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>293</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>2929579</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>293</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>745273</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>293</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>293</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>12139</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>293</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>1590394</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>293</v>
       </c>
@@ -7572,7 +7573,7 @@
       <c r="AO57" s="10"/>
       <c r="AP57" s="14"/>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>293</v>
       </c>
@@ -7630,7 +7631,7 @@
       <c r="AO58" s="10"/>
       <c r="AP58" s="14"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>293</v>
       </c>
@@ -7720,7 +7721,7 @@
       <c r="AO59" s="10"/>
       <c r="AP59" s="14"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>293</v>
       </c>
@@ -7774,7 +7775,7 @@
       <c r="AO60" s="10"/>
       <c r="AP60" s="14"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>293</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>86521</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>229</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>76067525</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>229</v>
       </c>
@@ -8145,7 +8146,7 @@
       </c>
       <c r="AR63" s="6"/>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>229</v>
       </c>
@@ -8238,7 +8239,7 @@
       <c r="AP64" s="14"/>
       <c r="AR64" s="6"/>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>229</v>
       </c>
@@ -8307,7 +8308,7 @@
         <v>110194</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>229</v>
       </c>
@@ -8385,7 +8386,7 @@
       <c r="AO66" s="10"/>
       <c r="AP66" s="14"/>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>229</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>1016940</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>229</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v>151301</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>229</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>843695</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>236</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>236</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>238</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>239</v>
       </c>
@@ -9195,7 +9196,7 @@
         <v>1686697134</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>240</v>
       </c>
@@ -9326,7 +9327,7 @@
         <v>-43683417</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>241</v>
       </c>
@@ -9467,230 +9468,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IU91"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="HZ5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="IA13" sqref="IA13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
-    <col min="22" max="22" width="13.44140625" customWidth="1"/>
-    <col min="23" max="24" width="15.44140625" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" customWidth="1"/>
-    <col min="29" max="29" width="9.88671875" customWidth="1"/>
-    <col min="30" max="30" width="10.44140625" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" customWidth="1"/>
-    <col min="33" max="33" width="16.33203125" customWidth="1"/>
-    <col min="34" max="34" width="13.44140625" customWidth="1"/>
-    <col min="35" max="36" width="15.44140625" customWidth="1"/>
-    <col min="37" max="37" width="13.109375" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" customWidth="1"/>
-    <col min="39" max="39" width="11.6640625" customWidth="1"/>
-    <col min="40" max="40" width="10.44140625" customWidth="1"/>
-    <col min="41" max="41" width="9.88671875" customWidth="1"/>
-    <col min="42" max="42" width="10.44140625" customWidth="1"/>
-    <col min="43" max="43" width="9.44140625" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="16.33203125" customWidth="1"/>
-    <col min="46" max="46" width="13.44140625" customWidth="1"/>
-    <col min="47" max="48" width="15.44140625" customWidth="1"/>
-    <col min="49" max="49" width="13.109375" customWidth="1"/>
-    <col min="50" max="50" width="14.33203125" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" customWidth="1"/>
-    <col min="52" max="52" width="10.44140625" customWidth="1"/>
-    <col min="53" max="53" width="9.88671875" customWidth="1"/>
-    <col min="54" max="54" width="10.44140625" customWidth="1"/>
-    <col min="55" max="55" width="9.44140625" customWidth="1"/>
-    <col min="56" max="56" width="12.44140625" customWidth="1"/>
-    <col min="57" max="57" width="16.33203125" customWidth="1"/>
-    <col min="58" max="58" width="13.44140625" customWidth="1"/>
-    <col min="59" max="60" width="15.44140625" customWidth="1"/>
-    <col min="61" max="61" width="13.109375" customWidth="1"/>
-    <col min="62" max="62" width="14.33203125" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" customWidth="1"/>
-    <col min="64" max="64" width="10.44140625" customWidth="1"/>
-    <col min="65" max="65" width="9.88671875" customWidth="1"/>
-    <col min="66" max="66" width="10.44140625" customWidth="1"/>
-    <col min="67" max="67" width="9.44140625" customWidth="1"/>
-    <col min="68" max="68" width="12.44140625" customWidth="1"/>
-    <col min="69" max="69" width="16.33203125" customWidth="1"/>
-    <col min="70" max="70" width="13.44140625" customWidth="1"/>
-    <col min="71" max="72" width="15.44140625" customWidth="1"/>
-    <col min="73" max="73" width="13.109375" customWidth="1"/>
-    <col min="74" max="74" width="14.33203125" customWidth="1"/>
-    <col min="75" max="75" width="11.6640625" customWidth="1"/>
-    <col min="76" max="76" width="10.44140625" customWidth="1"/>
-    <col min="77" max="77" width="9.88671875" customWidth="1"/>
-    <col min="78" max="78" width="10.44140625" customWidth="1"/>
-    <col min="79" max="79" width="9.44140625" customWidth="1"/>
-    <col min="80" max="80" width="12.44140625" customWidth="1"/>
-    <col min="81" max="81" width="16.33203125" customWidth="1"/>
-    <col min="82" max="82" width="13.44140625" customWidth="1"/>
-    <col min="83" max="84" width="15.44140625" customWidth="1"/>
-    <col min="85" max="85" width="13.109375" customWidth="1"/>
-    <col min="86" max="86" width="14.33203125" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" customWidth="1"/>
-    <col min="88" max="88" width="10.44140625" customWidth="1"/>
-    <col min="89" max="89" width="9.88671875" customWidth="1"/>
-    <col min="90" max="90" width="10.44140625" customWidth="1"/>
-    <col min="91" max="91" width="9.44140625" customWidth="1"/>
-    <col min="92" max="92" width="12.44140625" customWidth="1"/>
-    <col min="93" max="93" width="16.33203125" customWidth="1"/>
-    <col min="94" max="94" width="13.44140625" customWidth="1"/>
-    <col min="95" max="96" width="15.44140625" customWidth="1"/>
-    <col min="97" max="97" width="13.109375" customWidth="1"/>
-    <col min="98" max="98" width="14.33203125" customWidth="1"/>
-    <col min="99" max="99" width="11.6640625" customWidth="1"/>
-    <col min="100" max="100" width="10.44140625" customWidth="1"/>
-    <col min="101" max="101" width="9.88671875" customWidth="1"/>
-    <col min="102" max="102" width="10.44140625" customWidth="1"/>
-    <col min="103" max="103" width="9.44140625" customWidth="1"/>
-    <col min="104" max="104" width="12.44140625" customWidth="1"/>
-    <col min="105" max="105" width="16.33203125" customWidth="1"/>
-    <col min="106" max="106" width="13.44140625" customWidth="1"/>
-    <col min="107" max="108" width="15.44140625" customWidth="1"/>
-    <col min="109" max="109" width="13.109375" customWidth="1"/>
-    <col min="110" max="110" width="14.33203125" customWidth="1"/>
-    <col min="111" max="111" width="11.6640625" customWidth="1"/>
-    <col min="112" max="112" width="10.44140625" customWidth="1"/>
-    <col min="113" max="113" width="9.88671875" customWidth="1"/>
-    <col min="114" max="114" width="10.44140625" customWidth="1"/>
-    <col min="115" max="115" width="9.44140625" customWidth="1"/>
-    <col min="116" max="116" width="12.44140625" customWidth="1"/>
-    <col min="117" max="117" width="16.33203125" customWidth="1"/>
-    <col min="118" max="118" width="13.44140625" customWidth="1"/>
-    <col min="119" max="120" width="15.44140625" customWidth="1"/>
-    <col min="121" max="121" width="13.109375" customWidth="1"/>
-    <col min="122" max="122" width="14.33203125" customWidth="1"/>
-    <col min="123" max="123" width="11.6640625" customWidth="1"/>
-    <col min="124" max="124" width="10.44140625" customWidth="1"/>
-    <col min="125" max="125" width="9.88671875" customWidth="1"/>
-    <col min="126" max="126" width="10.44140625" customWidth="1"/>
-    <col min="127" max="127" width="9.44140625" customWidth="1"/>
-    <col min="128" max="128" width="12.44140625" customWidth="1"/>
-    <col min="129" max="129" width="16.33203125" customWidth="1"/>
-    <col min="130" max="130" width="13.44140625" customWidth="1"/>
-    <col min="131" max="132" width="15.44140625" customWidth="1"/>
-    <col min="133" max="133" width="13.109375" customWidth="1"/>
-    <col min="134" max="134" width="14.33203125" customWidth="1"/>
-    <col min="135" max="135" width="11.6640625" customWidth="1"/>
-    <col min="136" max="136" width="10.44140625" customWidth="1"/>
-    <col min="137" max="137" width="9.88671875" customWidth="1"/>
-    <col min="138" max="138" width="10.44140625" customWidth="1"/>
-    <col min="139" max="139" width="9.44140625" customWidth="1"/>
-    <col min="140" max="140" width="12.44140625" customWidth="1"/>
-    <col min="141" max="141" width="16.33203125" customWidth="1"/>
-    <col min="142" max="142" width="13.44140625" customWidth="1"/>
-    <col min="143" max="144" width="15.44140625" customWidth="1"/>
-    <col min="145" max="145" width="13.109375" customWidth="1"/>
-    <col min="146" max="146" width="14.33203125" customWidth="1"/>
-    <col min="147" max="147" width="11.6640625" customWidth="1"/>
-    <col min="148" max="148" width="10.44140625" customWidth="1"/>
-    <col min="149" max="149" width="9.88671875" customWidth="1"/>
-    <col min="150" max="150" width="10.44140625" customWidth="1"/>
-    <col min="151" max="151" width="9.44140625" customWidth="1"/>
-    <col min="152" max="152" width="12.44140625" customWidth="1"/>
-    <col min="153" max="153" width="16.33203125" customWidth="1"/>
-    <col min="154" max="154" width="13.44140625" customWidth="1"/>
-    <col min="155" max="156" width="15.44140625" customWidth="1"/>
-    <col min="157" max="157" width="13.109375" customWidth="1"/>
-    <col min="158" max="158" width="14.33203125" customWidth="1"/>
-    <col min="159" max="159" width="11.6640625" customWidth="1"/>
-    <col min="160" max="160" width="10.44140625" customWidth="1"/>
-    <col min="161" max="161" width="9.88671875" customWidth="1"/>
-    <col min="162" max="162" width="10.44140625" customWidth="1"/>
-    <col min="163" max="163" width="9.44140625" customWidth="1"/>
-    <col min="164" max="164" width="12.44140625" customWidth="1"/>
-    <col min="165" max="165" width="16.33203125" customWidth="1"/>
-    <col min="166" max="166" width="13.44140625" customWidth="1"/>
-    <col min="167" max="168" width="15.44140625" customWidth="1"/>
-    <col min="169" max="169" width="13.109375" customWidth="1"/>
-    <col min="170" max="170" width="14.33203125" customWidth="1"/>
-    <col min="171" max="171" width="11.6640625" customWidth="1"/>
-    <col min="172" max="172" width="10.44140625" customWidth="1"/>
-    <col min="173" max="173" width="9.88671875" customWidth="1"/>
-    <col min="174" max="174" width="10.44140625" customWidth="1"/>
-    <col min="175" max="175" width="9.44140625" customWidth="1"/>
-    <col min="176" max="176" width="12.44140625" customWidth="1"/>
-    <col min="177" max="177" width="16.33203125" customWidth="1"/>
-    <col min="178" max="178" width="13.44140625" customWidth="1"/>
-    <col min="179" max="180" width="15.44140625" customWidth="1"/>
-    <col min="181" max="181" width="13.109375" customWidth="1"/>
-    <col min="182" max="182" width="14.33203125" customWidth="1"/>
-    <col min="183" max="183" width="11.6640625" customWidth="1"/>
-    <col min="184" max="184" width="10.44140625" customWidth="1"/>
-    <col min="185" max="185" width="9.88671875" customWidth="1"/>
-    <col min="186" max="186" width="10.44140625" customWidth="1"/>
-    <col min="187" max="187" width="9.88671875" customWidth="1"/>
-    <col min="188" max="188" width="12.44140625" customWidth="1"/>
-    <col min="189" max="189" width="16.33203125" customWidth="1"/>
-    <col min="190" max="190" width="13.44140625" customWidth="1"/>
-    <col min="191" max="192" width="15.44140625" customWidth="1"/>
-    <col min="193" max="193" width="13.109375" customWidth="1"/>
-    <col min="194" max="194" width="14.33203125" customWidth="1"/>
-    <col min="195" max="195" width="11.6640625" customWidth="1"/>
-    <col min="196" max="196" width="10.44140625" customWidth="1"/>
-    <col min="197" max="197" width="9.88671875" customWidth="1"/>
-    <col min="198" max="198" width="10.44140625" customWidth="1"/>
-    <col min="199" max="199" width="9.88671875" customWidth="1"/>
-    <col min="200" max="200" width="12.44140625" customWidth="1"/>
-    <col min="201" max="201" width="16.33203125" customWidth="1"/>
-    <col min="202" max="202" width="13.44140625" customWidth="1"/>
-    <col min="203" max="204" width="15.44140625" customWidth="1"/>
-    <col min="205" max="205" width="13.109375" customWidth="1"/>
-    <col min="206" max="206" width="14.33203125" customWidth="1"/>
-    <col min="207" max="207" width="11.6640625" customWidth="1"/>
-    <col min="208" max="208" width="10.44140625" customWidth="1"/>
-    <col min="209" max="209" width="9.88671875" customWidth="1"/>
-    <col min="210" max="210" width="10.44140625" customWidth="1"/>
-    <col min="211" max="211" width="9.88671875" customWidth="1"/>
-    <col min="212" max="212" width="12.44140625" customWidth="1"/>
-    <col min="213" max="213" width="16.33203125" customWidth="1"/>
-    <col min="214" max="214" width="13.44140625" customWidth="1"/>
-    <col min="215" max="216" width="15.44140625" customWidth="1"/>
-    <col min="217" max="217" width="13.109375" customWidth="1"/>
-    <col min="218" max="218" width="14.33203125" customWidth="1"/>
-    <col min="219" max="219" width="11.6640625" customWidth="1"/>
-    <col min="220" max="220" width="10.44140625" customWidth="1"/>
-    <col min="221" max="221" width="9.88671875" customWidth="1"/>
-    <col min="222" max="222" width="10.44140625" customWidth="1"/>
-    <col min="223" max="223" width="9.88671875" customWidth="1"/>
-    <col min="224" max="224" width="12.44140625" customWidth="1"/>
-    <col min="225" max="225" width="16.33203125" customWidth="1"/>
-    <col min="226" max="226" width="13.44140625" customWidth="1"/>
-    <col min="227" max="228" width="15.44140625" customWidth="1"/>
-    <col min="229" max="229" width="13.109375" customWidth="1"/>
-    <col min="230" max="230" width="14.33203125" customWidth="1"/>
-    <col min="231" max="231" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="24" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" customWidth="1"/>
+    <col min="33" max="33" width="16.28515625" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" customWidth="1"/>
+    <col min="35" max="36" width="15.42578125" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1"/>
+    <col min="38" max="38" width="14.28515625" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" customWidth="1"/>
+    <col min="40" max="40" width="10.42578125" customWidth="1"/>
+    <col min="41" max="41" width="9.85546875" customWidth="1"/>
+    <col min="42" max="42" width="10.42578125" customWidth="1"/>
+    <col min="43" max="43" width="9.42578125" customWidth="1"/>
+    <col min="44" max="44" width="12.42578125" customWidth="1"/>
+    <col min="45" max="45" width="16.28515625" customWidth="1"/>
+    <col min="46" max="46" width="13.42578125" customWidth="1"/>
+    <col min="47" max="48" width="15.42578125" customWidth="1"/>
+    <col min="49" max="49" width="13.140625" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" customWidth="1"/>
+    <col min="51" max="51" width="11.7109375" customWidth="1"/>
+    <col min="52" max="52" width="10.42578125" customWidth="1"/>
+    <col min="53" max="53" width="9.85546875" customWidth="1"/>
+    <col min="54" max="54" width="10.42578125" customWidth="1"/>
+    <col min="55" max="55" width="9.42578125" customWidth="1"/>
+    <col min="56" max="56" width="12.42578125" customWidth="1"/>
+    <col min="57" max="57" width="16.28515625" customWidth="1"/>
+    <col min="58" max="58" width="13.42578125" customWidth="1"/>
+    <col min="59" max="60" width="15.42578125" customWidth="1"/>
+    <col min="61" max="61" width="13.140625" customWidth="1"/>
+    <col min="62" max="62" width="14.28515625" customWidth="1"/>
+    <col min="63" max="63" width="11.7109375" customWidth="1"/>
+    <col min="64" max="64" width="10.42578125" customWidth="1"/>
+    <col min="65" max="65" width="9.85546875" customWidth="1"/>
+    <col min="66" max="66" width="10.42578125" customWidth="1"/>
+    <col min="67" max="67" width="9.42578125" customWidth="1"/>
+    <col min="68" max="68" width="12.42578125" customWidth="1"/>
+    <col min="69" max="69" width="16.28515625" customWidth="1"/>
+    <col min="70" max="70" width="13.42578125" customWidth="1"/>
+    <col min="71" max="72" width="15.42578125" customWidth="1"/>
+    <col min="73" max="73" width="13.140625" customWidth="1"/>
+    <col min="74" max="74" width="14.28515625" customWidth="1"/>
+    <col min="75" max="75" width="11.7109375" customWidth="1"/>
+    <col min="76" max="76" width="10.42578125" customWidth="1"/>
+    <col min="77" max="77" width="9.85546875" customWidth="1"/>
+    <col min="78" max="78" width="10.42578125" customWidth="1"/>
+    <col min="79" max="79" width="9.42578125" customWidth="1"/>
+    <col min="80" max="80" width="12.42578125" customWidth="1"/>
+    <col min="81" max="81" width="16.28515625" customWidth="1"/>
+    <col min="82" max="82" width="13.42578125" customWidth="1"/>
+    <col min="83" max="84" width="15.42578125" customWidth="1"/>
+    <col min="85" max="85" width="13.140625" customWidth="1"/>
+    <col min="86" max="86" width="14.28515625" customWidth="1"/>
+    <col min="87" max="87" width="11.7109375" customWidth="1"/>
+    <col min="88" max="88" width="10.42578125" customWidth="1"/>
+    <col min="89" max="89" width="9.85546875" customWidth="1"/>
+    <col min="90" max="90" width="10.42578125" customWidth="1"/>
+    <col min="91" max="91" width="9.42578125" customWidth="1"/>
+    <col min="92" max="92" width="12.42578125" customWidth="1"/>
+    <col min="93" max="93" width="16.28515625" customWidth="1"/>
+    <col min="94" max="94" width="13.42578125" customWidth="1"/>
+    <col min="95" max="96" width="15.42578125" customWidth="1"/>
+    <col min="97" max="97" width="13.140625" customWidth="1"/>
+    <col min="98" max="98" width="14.28515625" customWidth="1"/>
+    <col min="99" max="99" width="11.7109375" customWidth="1"/>
+    <col min="100" max="100" width="10.42578125" customWidth="1"/>
+    <col min="101" max="101" width="9.85546875" customWidth="1"/>
+    <col min="102" max="102" width="10.42578125" customWidth="1"/>
+    <col min="103" max="103" width="9.42578125" customWidth="1"/>
+    <col min="104" max="104" width="12.42578125" customWidth="1"/>
+    <col min="105" max="105" width="16.28515625" customWidth="1"/>
+    <col min="106" max="106" width="13.42578125" customWidth="1"/>
+    <col min="107" max="108" width="15.42578125" customWidth="1"/>
+    <col min="109" max="109" width="13.140625" customWidth="1"/>
+    <col min="110" max="110" width="14.28515625" customWidth="1"/>
+    <col min="111" max="111" width="11.7109375" customWidth="1"/>
+    <col min="112" max="112" width="10.42578125" customWidth="1"/>
+    <col min="113" max="113" width="9.85546875" customWidth="1"/>
+    <col min="114" max="114" width="10.42578125" customWidth="1"/>
+    <col min="115" max="115" width="9.42578125" customWidth="1"/>
+    <col min="116" max="116" width="12.42578125" customWidth="1"/>
+    <col min="117" max="117" width="16.28515625" customWidth="1"/>
+    <col min="118" max="118" width="13.42578125" customWidth="1"/>
+    <col min="119" max="120" width="15.42578125" customWidth="1"/>
+    <col min="121" max="121" width="13.140625" customWidth="1"/>
+    <col min="122" max="122" width="14.28515625" customWidth="1"/>
+    <col min="123" max="123" width="11.7109375" customWidth="1"/>
+    <col min="124" max="124" width="10.42578125" customWidth="1"/>
+    <col min="125" max="125" width="9.85546875" customWidth="1"/>
+    <col min="126" max="126" width="10.42578125" customWidth="1"/>
+    <col min="127" max="127" width="9.42578125" customWidth="1"/>
+    <col min="128" max="128" width="12.42578125" customWidth="1"/>
+    <col min="129" max="129" width="16.28515625" customWidth="1"/>
+    <col min="130" max="130" width="13.42578125" customWidth="1"/>
+    <col min="131" max="132" width="15.42578125" customWidth="1"/>
+    <col min="133" max="133" width="13.140625" customWidth="1"/>
+    <col min="134" max="134" width="14.28515625" customWidth="1"/>
+    <col min="135" max="135" width="11.7109375" customWidth="1"/>
+    <col min="136" max="136" width="10.42578125" customWidth="1"/>
+    <col min="137" max="137" width="9.85546875" customWidth="1"/>
+    <col min="138" max="138" width="10.42578125" customWidth="1"/>
+    <col min="139" max="139" width="9.42578125" customWidth="1"/>
+    <col min="140" max="140" width="12.42578125" customWidth="1"/>
+    <col min="141" max="141" width="16.28515625" customWidth="1"/>
+    <col min="142" max="142" width="13.42578125" customWidth="1"/>
+    <col min="143" max="144" width="15.42578125" customWidth="1"/>
+    <col min="145" max="145" width="13.140625" customWidth="1"/>
+    <col min="146" max="146" width="14.28515625" customWidth="1"/>
+    <col min="147" max="147" width="11.7109375" customWidth="1"/>
+    <col min="148" max="148" width="10.42578125" customWidth="1"/>
+    <col min="149" max="149" width="9.85546875" customWidth="1"/>
+    <col min="150" max="150" width="10.42578125" customWidth="1"/>
+    <col min="151" max="151" width="9.42578125" customWidth="1"/>
+    <col min="152" max="152" width="12.42578125" customWidth="1"/>
+    <col min="153" max="153" width="16.28515625" customWidth="1"/>
+    <col min="154" max="154" width="13.42578125" customWidth="1"/>
+    <col min="155" max="156" width="15.42578125" customWidth="1"/>
+    <col min="157" max="157" width="13.140625" customWidth="1"/>
+    <col min="158" max="158" width="14.28515625" customWidth="1"/>
+    <col min="159" max="159" width="11.7109375" customWidth="1"/>
+    <col min="160" max="160" width="10.42578125" customWidth="1"/>
+    <col min="161" max="161" width="9.85546875" customWidth="1"/>
+    <col min="162" max="162" width="10.42578125" customWidth="1"/>
+    <col min="163" max="163" width="9.42578125" customWidth="1"/>
+    <col min="164" max="164" width="12.42578125" customWidth="1"/>
+    <col min="165" max="165" width="16.28515625" customWidth="1"/>
+    <col min="166" max="166" width="13.42578125" customWidth="1"/>
+    <col min="167" max="168" width="15.42578125" customWidth="1"/>
+    <col min="169" max="169" width="13.140625" customWidth="1"/>
+    <col min="170" max="170" width="14.28515625" customWidth="1"/>
+    <col min="171" max="171" width="11.7109375" customWidth="1"/>
+    <col min="172" max="172" width="10.42578125" customWidth="1"/>
+    <col min="173" max="173" width="9.85546875" customWidth="1"/>
+    <col min="174" max="174" width="10.42578125" customWidth="1"/>
+    <col min="175" max="175" width="9.42578125" customWidth="1"/>
+    <col min="176" max="176" width="12.42578125" customWidth="1"/>
+    <col min="177" max="177" width="16.28515625" customWidth="1"/>
+    <col min="178" max="178" width="13.42578125" customWidth="1"/>
+    <col min="179" max="180" width="15.42578125" customWidth="1"/>
+    <col min="181" max="181" width="13.140625" customWidth="1"/>
+    <col min="182" max="182" width="14.28515625" customWidth="1"/>
+    <col min="183" max="183" width="11.7109375" customWidth="1"/>
+    <col min="184" max="184" width="10.42578125" customWidth="1"/>
+    <col min="185" max="185" width="9.85546875" customWidth="1"/>
+    <col min="186" max="186" width="10.42578125" customWidth="1"/>
+    <col min="187" max="187" width="9.85546875" customWidth="1"/>
+    <col min="188" max="188" width="12.42578125" customWidth="1"/>
+    <col min="189" max="189" width="16.28515625" customWidth="1"/>
+    <col min="190" max="190" width="13.42578125" customWidth="1"/>
+    <col min="191" max="192" width="15.42578125" customWidth="1"/>
+    <col min="193" max="193" width="13.140625" customWidth="1"/>
+    <col min="194" max="194" width="14.28515625" customWidth="1"/>
+    <col min="195" max="195" width="11.7109375" customWidth="1"/>
+    <col min="196" max="196" width="10.42578125" customWidth="1"/>
+    <col min="197" max="197" width="9.85546875" customWidth="1"/>
+    <col min="198" max="198" width="10.42578125" customWidth="1"/>
+    <col min="199" max="199" width="9.85546875" customWidth="1"/>
+    <col min="200" max="200" width="12.42578125" customWidth="1"/>
+    <col min="201" max="201" width="16.28515625" customWidth="1"/>
+    <col min="202" max="202" width="13.42578125" customWidth="1"/>
+    <col min="203" max="204" width="15.42578125" customWidth="1"/>
+    <col min="205" max="205" width="13.140625" customWidth="1"/>
+    <col min="206" max="206" width="14.28515625" customWidth="1"/>
+    <col min="207" max="207" width="11.7109375" customWidth="1"/>
+    <col min="208" max="208" width="10.42578125" customWidth="1"/>
+    <col min="209" max="209" width="9.85546875" customWidth="1"/>
+    <col min="210" max="210" width="10.42578125" customWidth="1"/>
+    <col min="211" max="211" width="9.85546875" customWidth="1"/>
+    <col min="212" max="212" width="12.42578125" customWidth="1"/>
+    <col min="213" max="213" width="16.28515625" customWidth="1"/>
+    <col min="214" max="214" width="13.42578125" customWidth="1"/>
+    <col min="215" max="216" width="15.42578125" customWidth="1"/>
+    <col min="217" max="217" width="13.140625" customWidth="1"/>
+    <col min="218" max="218" width="14.28515625" customWidth="1"/>
+    <col min="219" max="219" width="11.7109375" customWidth="1"/>
+    <col min="220" max="220" width="10.42578125" customWidth="1"/>
+    <col min="221" max="221" width="9.85546875" customWidth="1"/>
+    <col min="222" max="222" width="10.42578125" customWidth="1"/>
+    <col min="223" max="223" width="9.85546875" customWidth="1"/>
+    <col min="224" max="224" width="12.42578125" customWidth="1"/>
+    <col min="225" max="225" width="16.28515625" customWidth="1"/>
+    <col min="226" max="226" width="13.42578125" customWidth="1"/>
+    <col min="227" max="228" width="15.42578125" customWidth="1"/>
+    <col min="229" max="229" width="13.140625" customWidth="1"/>
+    <col min="230" max="230" width="14.28515625" customWidth="1"/>
+    <col min="231" max="231" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>242</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>247</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>89625767.376359999</v>
       </c>
     </row>
-    <row r="3" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>247</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>54804405.024700001</v>
       </c>
     </row>
-    <row r="4" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>247</v>
       </c>
@@ -12221,7 +12222,7 @@
         <v>2252807.2742699999</v>
       </c>
     </row>
-    <row r="5" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>247</v>
       </c>
@@ -12451,7 +12452,7 @@
         <v>54356488.593599997</v>
       </c>
     </row>
-    <row r="6" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>247</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>-325056.69287999999</v>
       </c>
     </row>
-    <row r="7" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>247</v>
       </c>
@@ -12911,7 +12912,7 @@
         <v>-30224.64489</v>
       </c>
     </row>
-    <row r="8" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>247</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>-1449609.5053999999</v>
       </c>
     </row>
-    <row r="9" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>247</v>
       </c>
@@ -13956,7 +13957,7 @@
         <v>33598830.491619997</v>
       </c>
     </row>
-    <row r="10" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>247</v>
       </c>
@@ -14723,7 +14724,7 @@
         <v>30172923.542580001</v>
       </c>
     </row>
-    <row r="11" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>247</v>
       </c>
@@ -15490,7 +15491,7 @@
         <v>11527.065909999999</v>
       </c>
     </row>
-    <row r="12" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>247</v>
       </c>
@@ -15900,7 +15901,7 @@
         <v>3366873.5185500002</v>
       </c>
     </row>
-    <row r="13" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>247</v>
       </c>
@@ -16202,7 +16203,7 @@
         <v>47506.364580000001</v>
       </c>
     </row>
-    <row r="14" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>247</v>
       </c>
@@ -16645,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>247</v>
       </c>
@@ -17199,7 +17200,7 @@
         <v>1067747.74649</v>
       </c>
     </row>
-    <row r="16" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>247</v>
       </c>
@@ -17753,7 +17754,7 @@
         <v>1222531.8600399999</v>
       </c>
     </row>
-    <row r="17" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>247</v>
       </c>
@@ -18379,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>192</v>
       </c>
@@ -19146,7 +19147,7 @@
         <v>1911309.69796</v>
       </c>
     </row>
-    <row r="19" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>192</v>
       </c>
@@ -19913,7 +19914,7 @@
         <v>1911309.69796</v>
       </c>
     </row>
-    <row r="20" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>194</v>
       </c>
@@ -20680,7 +20681,7 @@
         <v>1870770.33968</v>
       </c>
     </row>
-    <row r="21" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>194</v>
       </c>
@@ -21353,7 +21354,7 @@
         <v>564671.11152999999</v>
       </c>
     </row>
-    <row r="22" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>194</v>
       </c>
@@ -22120,7 +22121,7 @@
         <v>163961.30153</v>
       </c>
     </row>
-    <row r="23" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>194</v>
       </c>
@@ -22887,7 +22888,7 @@
         <v>400709.81</v>
       </c>
     </row>
-    <row r="24" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>194</v>
       </c>
@@ -23560,7 +23561,7 @@
         <v>1306099.2281500001</v>
       </c>
     </row>
-    <row r="25" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>194</v>
       </c>
@@ -24327,7 +24328,7 @@
         <v>353768.06474</v>
       </c>
     </row>
-    <row r="26" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>194</v>
       </c>
@@ -25094,7 +25095,7 @@
         <v>952331.16341000004</v>
       </c>
     </row>
-    <row r="27" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>293</v>
       </c>
@@ -25861,7 +25862,7 @@
         <v>63954822.890699998</v>
       </c>
     </row>
-    <row r="28" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>293</v>
       </c>
@@ -26628,7 +26629,7 @@
         <v>47860308.407420002</v>
       </c>
     </row>
-    <row r="29" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>293</v>
       </c>
@@ -27074,7 +27075,7 @@
         <v>40430363.808760002</v>
       </c>
     </row>
-    <row r="30" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>293</v>
       </c>
@@ -27520,7 +27521,7 @@
         <v>38058965.787529998</v>
       </c>
     </row>
-    <row r="31" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>293</v>
       </c>
@@ -27966,7 +27967,7 @@
         <v>-30629021.188870002</v>
       </c>
     </row>
-    <row r="32" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>293</v>
       </c>
@@ -28484,7 +28485,7 @@
         <v>1118.6627000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>293</v>
       </c>
@@ -29251,7 +29252,7 @@
         <v>5654141.5526400004</v>
       </c>
     </row>
-    <row r="34" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>293</v>
       </c>
@@ -30018,7 +30019,7 @@
         <v>2610177.2239600001</v>
       </c>
     </row>
-    <row r="35" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>293</v>
       </c>
@@ -30785,7 +30786,7 @@
         <v>88.689959999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>293</v>
       </c>
@@ -31552,7 +31553,7 @@
         <v>508386.30064999999</v>
       </c>
     </row>
-    <row r="37" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>293</v>
       </c>
@@ -31636,7 +31637,7 @@
       </c>
       <c r="AN37" s="15"/>
     </row>
-    <row r="38" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>293</v>
       </c>
@@ -32403,7 +32404,7 @@
         <v>1213374.47694</v>
       </c>
     </row>
-    <row r="39" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>293</v>
       </c>
@@ -33170,7 +33171,7 @@
         <v>629534.11398000002</v>
       </c>
     </row>
-    <row r="40" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>293</v>
       </c>
@@ -33937,7 +33938,7 @@
         <v>26891.779480000001</v>
       </c>
     </row>
-    <row r="41" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>293</v>
       </c>
@@ -34704,7 +34705,7 @@
         <v>52229.055869999997</v>
       </c>
     </row>
-    <row r="42" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>293</v>
       </c>
@@ -35375,7 +35376,7 @@
         <v>613459.9118</v>
       </c>
     </row>
-    <row r="43" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>293</v>
       </c>
@@ -36142,7 +36143,7 @@
         <v>716154.35667999997</v>
       </c>
     </row>
-    <row r="44" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>293</v>
       </c>
@@ -36336,7 +36337,7 @@
         <v>197807.83522000001</v>
       </c>
     </row>
-    <row r="45" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>293</v>
       </c>
@@ -37103,7 +37104,7 @@
         <v>8168729.7027200004</v>
       </c>
     </row>
-    <row r="46" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>293</v>
       </c>
@@ -37261,7 +37262,7 @@
         <v>209443.76457</v>
       </c>
     </row>
-    <row r="47" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>293</v>
       </c>
@@ -37419,7 +37420,7 @@
         <v>135295.58768</v>
       </c>
     </row>
-    <row r="48" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>293</v>
       </c>
@@ -37577,7 +37578,7 @@
         <v>74148.176890000002</v>
       </c>
     </row>
-    <row r="49" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>293</v>
       </c>
@@ -37614,7 +37615,7 @@
       <c r="AB49" s="15"/>
       <c r="AN49" s="15"/>
     </row>
-    <row r="50" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>293</v>
       </c>
@@ -38211,7 +38212,7 @@
         <v>1355616.98743</v>
       </c>
     </row>
-    <row r="51" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>293</v>
       </c>
@@ -38978,7 +38979,7 @@
         <v>68948.520629999999</v>
       </c>
     </row>
-    <row r="52" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>293</v>
       </c>
@@ -39666,7 +39667,7 @@
         <v>127861.26256</v>
       </c>
     </row>
-    <row r="53" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>293</v>
       </c>
@@ -40184,7 +40185,7 @@
         <v>523617.10294999997</v>
       </c>
     </row>
-    <row r="54" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>293</v>
       </c>
@@ -40702,7 +40703,7 @@
         <v>2655.03449</v>
       </c>
     </row>
-    <row r="55" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>293</v>
       </c>
@@ -41184,7 +41185,7 @@
         <v>552785.13656999997</v>
       </c>
     </row>
-    <row r="56" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>293</v>
       </c>
@@ -41450,7 +41451,7 @@
         <v>74603.810100000002</v>
       </c>
     </row>
-    <row r="57" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>293</v>
       </c>
@@ -41716,7 +41717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>293</v>
       </c>
@@ -41838,7 +41839,7 @@
         <v>5146.1201300000002</v>
       </c>
     </row>
-    <row r="59" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>293</v>
       </c>
@@ -41855,7 +41856,7 @@
       <c r="AB59" s="15"/>
       <c r="AN59" s="15"/>
     </row>
-    <row r="60" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>293</v>
       </c>
@@ -41901,7 +41902,7 @@
         <v>35076</v>
       </c>
     </row>
-    <row r="61" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>293</v>
       </c>
@@ -42527,7 +42528,7 @@
         <v>1067747.74649</v>
       </c>
     </row>
-    <row r="62" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>293</v>
       </c>
@@ -43159,7 +43160,7 @@
         <v>945.38589000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>229</v>
       </c>
@@ -43926,7 +43927,7 @@
         <v>9929813.5105799995</v>
       </c>
     </row>
-    <row r="64" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>229</v>
       </c>
@@ -44552,7 +44553,7 @@
         <v>10067033.84692</v>
       </c>
     </row>
-    <row r="65" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>229</v>
       </c>
@@ -45319,7 +45320,7 @@
         <v>8911272.5172700007</v>
       </c>
     </row>
-    <row r="66" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>229</v>
       </c>
@@ -45369,7 +45370,7 @@
       <c r="AB66" s="15"/>
       <c r="AN66" s="15"/>
     </row>
-    <row r="67" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>229</v>
       </c>
@@ -45407,7 +45408,7 @@
       <c r="AB67" s="15"/>
       <c r="AN67" s="15"/>
     </row>
-    <row r="68" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>229</v>
       </c>
@@ -45817,7 +45818,7 @@
         <v>1155761.32965</v>
       </c>
     </row>
-    <row r="69" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>229</v>
       </c>
@@ -46011,7 +46012,7 @@
         <v>18509.163100000002</v>
       </c>
     </row>
-    <row r="70" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>229</v>
       </c>
@@ -46637,7 +46638,7 @@
         <v>1067747.74649</v>
       </c>
     </row>
-    <row r="71" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>229</v>
       </c>
@@ -47404,7 +47405,7 @@
         <v>-247434.20736</v>
       </c>
     </row>
-    <row r="72" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>229</v>
       </c>
@@ -48044,7 +48045,7 @@
         <v>38955.74684</v>
       </c>
     </row>
-    <row r="73" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>229</v>
       </c>
@@ -48130,7 +48131,7 @@
         <v>52748.961080000001</v>
       </c>
     </row>
-    <row r="74" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>236</v>
       </c>
@@ -48897,7 +48898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>236</v>
       </c>
@@ -49664,7 +49665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>238</v>
       </c>
@@ -50395,7 +50396,7 @@
         <v>-470.68646000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>239</v>
       </c>
@@ -51162,7 +51163,7 @@
         <v>167292013.12882</v>
       </c>
     </row>
-    <row r="78" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>240</v>
       </c>
@@ -51836,7 +51837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:255" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>241</v>
       </c>
@@ -52603,7 +52604,7 @@
         <v>167292013.12882</v>
       </c>
     </row>
-    <row r="91" spans="87:87" x14ac:dyDescent="0.3">
+    <row r="91" spans="87:87" x14ac:dyDescent="0.25">
       <c r="CI91" s="16"/>
     </row>
   </sheetData>
